--- a/resource_api/finans/konteyner_islem/dosyalar/konteyner_odeme_listesi.xlsx
+++ b/resource_api/finans/konteyner_islem/dosyalar/konteyner_odeme_listesi.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sayfa1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sayfa1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt formatCode="[$$-409]#,##0.00" numFmtId="164"/>
+    <numFmt numFmtId="164" formatCode="[$$-409]#,##0.00"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -54,33 +54,101 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -351,7 +419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B88"/>
+  <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K21" sqref="K21"/>
@@ -359,11 +427,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="3" width="17.109375"/>
-    <col customWidth="1" max="2" min="2" style="5" width="20.21875"/>
+    <col width="17.109375" customWidth="1" style="3" min="1" max="1"/>
+    <col width="20.21875" customWidth="1" style="5" min="2" max="2"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="15.6" r="1">
+    <row r="1" ht="15.6" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Tarih</t>
@@ -378,875 +446,385 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>07-06-2021</t>
+          <t>14-11-2022</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15260.91</v>
+        <v>16700</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>20-05-2021</t>
+          <t>24-10-2022</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6257.53</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>27-04-2021</t>
+          <t>05-08-2022</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>24953.37</v>
+        <v>19660.5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>17-03-2021</t>
+          <t>23-06-2022</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10442.84</v>
+        <v>2253.52</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>02-03-2021</t>
+          <t>15-06-2022</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5597.53</v>
+        <v>16073.62</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>20-01-2021</t>
+          <t>10-06-2022</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12937.2</v>
+        <v>20476.99</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>04-12-2020</t>
+          <t>15-10-2021</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6106.8</v>
+        <v>16771.11</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>24-01-2020</t>
+          <t>05-10-2021</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>22113</v>
+        <v>6396.57</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>18-12-2019</t>
+          <t>20-08-2021</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>21837.26</v>
+        <v>15599.83</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>10-12-2019</t>
+          <t>09-07-2021</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>22113</v>
+        <v>14999.86</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>24-10-2019</t>
+          <t>03-06-2021</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>7371</v>
+        <v>25092.58</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>16-10-2019</t>
+          <t>12-04-2021</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>10896</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>14-10-2019</t>
+          <t>25-03-2021</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3685.5</v>
+        <v>13571.92</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>08-10-2019</t>
+          <t>11-03-2021</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>10645.74</v>
+        <v>2160.69</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>05-09-2019</t>
+          <t>01-03-2021</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>11583</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>20-08-2019</t>
+          <t>08-02-2021</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>3861</v>
+        <v>14498.86</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>16-08-2019</t>
+          <t>03-12-2020</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3861</v>
+        <v>21037</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>13-02-2019</t>
+          <t>01-12-2020</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>10833.07</v>
+        <v>12143.92</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>10-01-2019</t>
+          <t>30-10-2020</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>3611.03</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>13-06-2018</t>
+          <t>07-10-2020</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>6190.87</v>
+        <v>17772.36</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>11-05-2018</t>
+          <t>23-04-2020</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>19494.86</v>
+        <v>12580.48</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>09-05-2018</t>
+          <t>06-03-2020</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2063.63</v>
+        <v>16951.26</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>05-04-2018</t>
+          <t>30-12-2019</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2063.63</v>
+        <v>10159.85</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>29-03-2018</t>
+          <t>17-12-2019</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4433.13</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>20-03-2018</t>
+          <t>28-11-2019</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>11941.5</v>
+        <v>21482.17</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>14-02-2018</t>
+          <t>22-10-2019</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3980.5</v>
+        <v>15449.77</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>25-01-2018</t>
+          <t>10-10-2019</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>17912.25</v>
+        <v>9406.860000000001</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>29-12-2017</t>
+          <t>07-10-2019</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>5970.75</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>31-08-2017</t>
+          <t>12-06-2019</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>18521.4</v>
+        <v>17404.4</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>26-07-2017</t>
+          <t>05-03-2019</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>15992</v>
+        <v>10719.26</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>04-07-2017</t>
+          <t>22-02-2019</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>11194.4</v>
+        <v>2800</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>12-06-2017</t>
+          <t>03-01-2019</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>4797.6</v>
+        <v>14176.29</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>01-06-2017</t>
+          <t>17-12-2018</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>11194.4</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>27-04-2017</t>
+          <t>27-11-2018</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>4797.6</v>
+        <v>9114.530000000001</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>20-04-2017</t>
+          <t>12-11-2018</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>5597.2</v>
+        <v>13145.73</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>10-04-2017</t>
+          <t>07-11-2018</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>5597.2</v>
+        <v>7500</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>13-03-2017</t>
+          <t>01-11-2018</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>4797.6</v>
+        <v>16000.42</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>07-03-2017</t>
+          <t>23-10-2018</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>5597.2</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>01-03-2017</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>5597.2</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>08-02-2017</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
-        <v>5597.2</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>31-01-2017</t>
-        </is>
-      </c>
-      <c r="B42" t="n">
-        <v>5598</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>27-01-2017</t>
-        </is>
-      </c>
-      <c r="B43" t="n">
-        <v>4797.6</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>19-01-2017</t>
-        </is>
-      </c>
-      <c r="B44" t="n">
-        <v>5597.2</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>30-12-2016</t>
-        </is>
-      </c>
-      <c r="B45" t="n">
-        <v>10394</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>08-12-2016</t>
-        </is>
-      </c>
-      <c r="B46" t="n">
-        <v>4797.6</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>18-11-2016</t>
-        </is>
-      </c>
-      <c r="B47" t="n">
-        <v>11142</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>03-11-2016</t>
-        </is>
-      </c>
-      <c r="B48" t="n">
-        <v>5471</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>19-10-2016</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
         <v>7000</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>18-08-2016</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>5943</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>15-07-2016</t>
-        </is>
-      </c>
-      <c r="B51" t="n">
-        <v>2375</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>11-05-2016</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>10841.77</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>18-03-2016</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>29-12-2015</t>
-        </is>
-      </c>
-      <c r="B54" t="n">
-        <v>7492.41</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>14-12-2015</t>
-        </is>
-      </c>
-      <c r="B55" t="n">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>17-06-2015</t>
-        </is>
-      </c>
-      <c r="B56" t="n">
-        <v>11839.48</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>20-05-2015</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
-        <v>7342.08</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>05-05-2015</t>
-        </is>
-      </c>
-      <c r="B58" t="n">
-        <v>7436.16</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>21-04-2015</t>
-        </is>
-      </c>
-      <c r="B59" t="n">
-        <v>7419.36</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>31-03-2015</t>
-        </is>
-      </c>
-      <c r="B60" t="n">
-        <v>19815.34</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>25-03-2015</t>
-        </is>
-      </c>
-      <c r="B61" t="n">
-        <v>9000</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>24-03-2015</t>
-        </is>
-      </c>
-      <c r="B62" t="n">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>04-03-2015</t>
-        </is>
-      </c>
-      <c r="B63" t="n">
-        <v>7587.36</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>02-03-2015</t>
-        </is>
-      </c>
-      <c r="B64" t="n">
-        <v>7523.52</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>26-01-2015</t>
-        </is>
-      </c>
-      <c r="B65" t="n">
-        <v>7385.76</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>15-01-2015</t>
-        </is>
-      </c>
-      <c r="B66" t="n">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>12-01-2015</t>
-        </is>
-      </c>
-      <c r="B67" t="n">
-        <v>11000</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>30-12-2014</t>
-        </is>
-      </c>
-      <c r="B68" t="n">
-        <v>7849.44</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>20-11-2014</t>
-        </is>
-      </c>
-      <c r="B69" t="n">
-        <v>10385.76</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>01-10-2014</t>
-        </is>
-      </c>
-      <c r="B70" t="n">
-        <v>10620.96</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>03-09-2014</t>
-        </is>
-      </c>
-      <c r="B71" t="n">
-        <v>21157.92</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>21-07-2014</t>
-        </is>
-      </c>
-      <c r="B72" t="n">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>24-03-2014</t>
-        </is>
-      </c>
-      <c r="B73" t="n">
-        <v>7610.88</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>19-02-2014</t>
-        </is>
-      </c>
-      <c r="B74" t="n">
-        <v>7996.64</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>27-01-2014</t>
-        </is>
-      </c>
-      <c r="B75" t="n">
-        <v>8110.88</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>16-01-2014</t>
-        </is>
-      </c>
-      <c r="B76" t="n">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>02-01-2014</t>
-        </is>
-      </c>
-      <c r="B77" t="n">
-        <v>6503.76</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>04-12-2013</t>
-        </is>
-      </c>
-      <c r="B78" t="n">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>02-12-2013</t>
-        </is>
-      </c>
-      <c r="B79" t="n">
-        <v>7327.28</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>25-11-2013</t>
-        </is>
-      </c>
-      <c r="B80" t="n">
-        <v>9452.26</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>08-10-2013</t>
-        </is>
-      </c>
-      <c r="B81" t="n">
-        <v>7985.08</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>25-09-2013</t>
-        </is>
-      </c>
-      <c r="B82" t="n">
-        <v>14380</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>09-09-2013</t>
-        </is>
-      </c>
-      <c r="B83" t="n">
-        <v>7739.2</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>03-09-2013</t>
-        </is>
-      </c>
-      <c r="B84" t="n">
-        <v>7030.56</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>07-08-2013</t>
-        </is>
-      </c>
-      <c r="B85" t="n">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>31-07-2013</t>
-        </is>
-      </c>
-      <c r="B86" t="n">
-        <v>11000</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>20-06-2013</t>
-        </is>
-      </c>
-      <c r="B87" t="n">
-        <v>7460.8</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>10-05-2013</t>
-        </is>
-      </c>
-      <c r="B88" t="n">
-        <v>5000</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>